--- a/partdb.xlsx
+++ b/partdb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,13 +684,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.375" customWidth="1"/>
     <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
@@ -774,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,10 +787,9 @@
     <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,13 +812,10 @@
         <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -842,13 +838,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -871,13 +864,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -900,13 +890,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -929,13 +916,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -958,13 +942,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -987,13 +968,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1016,16 +994,13 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
     </row>
   </sheetData>
@@ -1109,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" activeCellId="1" sqref="J12 I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
